--- a/analyses/input/provenanceinfo.xlsx
+++ b/analyses/input/provenanceinfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/treespotters/analysis/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/microclimates/analyses/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4106B8D9-7A03-9A4D-9CE4-7B749CE2CC2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16849A3C-16F8-4446-A247-7E8C1D9F5756}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5200" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,6 +1253,12 @@
       <c r="F2">
         <v>1912</v>
       </c>
+      <c r="G2">
+        <v>52.544676000000003</v>
+      </c>
+      <c r="H2">
+        <v>13.407079</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1270,6 +1276,12 @@
       <c r="F3">
         <v>1897</v>
       </c>
+      <c r="G3">
+        <v>40.029162999999997</v>
+      </c>
+      <c r="H3">
+        <v>-75.174784000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1287,6 +1299,12 @@
       <c r="F4">
         <v>1916</v>
       </c>
+      <c r="G4">
+        <v>40.741813</v>
+      </c>
+      <c r="H4">
+        <v>-85.170681999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1321,6 +1339,12 @@
       <c r="F6">
         <v>1900</v>
       </c>
+      <c r="G6">
+        <v>42.307153</v>
+      </c>
+      <c r="H6">
+        <v>-71.120872000000006</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1338,6 +1362,12 @@
       <c r="F7">
         <v>1900</v>
       </c>
+      <c r="G7">
+        <v>42.307153</v>
+      </c>
+      <c r="H7">
+        <v>-71.120872000000006</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1355,6 +1385,12 @@
       <c r="F8">
         <v>1900</v>
       </c>
+      <c r="G8">
+        <v>42.307153</v>
+      </c>
+      <c r="H8">
+        <v>-71.120872000000006</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1372,6 +1408,12 @@
       <c r="F9">
         <v>1900</v>
       </c>
+      <c r="G9">
+        <v>42.307153</v>
+      </c>
+      <c r="H9">
+        <v>-71.120872000000006</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1389,6 +1431,12 @@
       <c r="F10">
         <v>1983</v>
       </c>
+      <c r="G10">
+        <v>41.816406999999998</v>
+      </c>
+      <c r="H10">
+        <v>-88.054784999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1406,6 +1454,12 @@
       <c r="F11">
         <v>1877</v>
       </c>
+      <c r="G11">
+        <v>42.307153</v>
+      </c>
+      <c r="H11">
+        <v>-71.120872000000006</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1423,6 +1477,12 @@
       <c r="F12">
         <v>1979</v>
       </c>
+      <c r="G12">
+        <v>40.063778999999997</v>
+      </c>
+      <c r="H12">
+        <v>90.741031000000007</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1440,6 +1500,12 @@
       <c r="F13">
         <v>1979</v>
       </c>
+      <c r="G13">
+        <v>40.063778999999997</v>
+      </c>
+      <c r="H13">
+        <v>90.741031000000007</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1457,6 +1523,12 @@
       <c r="F14">
         <v>1877</v>
       </c>
+      <c r="G14">
+        <v>42.307153</v>
+      </c>
+      <c r="H14">
+        <v>-71.120872000000006</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1474,6 +1546,12 @@
       <c r="F15">
         <v>1979</v>
       </c>
+      <c r="G15">
+        <v>40.063778999999997</v>
+      </c>
+      <c r="H15">
+        <v>90.741031000000007</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1491,8 +1569,14 @@
       <c r="F16">
         <v>2010</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>42.307153</v>
+      </c>
+      <c r="H16">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>86289</v>
       </c>
@@ -1508,8 +1592,14 @@
       <c r="F17">
         <v>1982</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>42.307153</v>
+      </c>
+      <c r="H17">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>87757</v>
       </c>
@@ -1525,8 +1615,14 @@
       <c r="F18">
         <v>1906</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>42.307153</v>
+      </c>
+      <c r="H18">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>87756</v>
       </c>
@@ -1542,8 +1638,14 @@
       <c r="F19">
         <v>2010</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>42.307153</v>
+      </c>
+      <c r="H19">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>86278</v>
       </c>
@@ -1559,8 +1661,14 @@
       <c r="F20">
         <v>1895</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>42.307153</v>
+      </c>
+      <c r="H20">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>86279</v>
       </c>
@@ -1576,8 +1684,14 @@
       <c r="F21">
         <v>1895</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>42.307153</v>
+      </c>
+      <c r="H21">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>86280</v>
       </c>
@@ -1593,8 +1707,14 @@
       <c r="F22">
         <v>1895</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>42.307153</v>
+      </c>
+      <c r="H22">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>86281</v>
       </c>
@@ -1610,8 +1730,14 @@
       <c r="F23">
         <v>1895</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>42.307153</v>
+      </c>
+      <c r="H23">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>86282</v>
       </c>
@@ -1627,8 +1753,14 @@
       <c r="F24">
         <v>1911</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>43.130470000000003</v>
+      </c>
+      <c r="H24">
+        <v>-77.604658000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>85757</v>
       </c>
@@ -1644,8 +1776,14 @@
       <c r="F25">
         <v>1906</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>35.054271</v>
+      </c>
+      <c r="H25">
+        <v>-83.201019000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>85755</v>
       </c>
@@ -1661,8 +1799,14 @@
       <c r="F26">
         <v>1906</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>35.054271</v>
+      </c>
+      <c r="H26">
+        <v>-83.201019000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>85756</v>
       </c>
@@ -1678,8 +1822,14 @@
       <c r="F27">
         <v>1906</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>35.054271</v>
+      </c>
+      <c r="H27">
+        <v>-83.201019000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>85758</v>
       </c>
@@ -1696,7 +1846,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>85751</v>
       </c>
@@ -1712,8 +1862,14 @@
       <c r="F29">
         <v>1906</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>35.054271</v>
+      </c>
+      <c r="H29">
+        <v>-83.201019000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>86276</v>
       </c>
@@ -1729,8 +1885,14 @@
       <c r="F30">
         <v>1885</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>42.307153</v>
+      </c>
+      <c r="H30">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>86277</v>
       </c>
@@ -1746,8 +1908,14 @@
       <c r="F31">
         <v>1885</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>42.307153</v>
+      </c>
+      <c r="H31">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>86273</v>
       </c>
@@ -1764,7 +1932,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>86274</v>
       </c>
@@ -1780,8 +1948,14 @@
       <c r="F33">
         <v>1885</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>42.307153</v>
+      </c>
+      <c r="H33">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>86275</v>
       </c>
@@ -1797,8 +1971,14 @@
       <c r="F34">
         <v>1885</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>42.307153</v>
+      </c>
+      <c r="H34">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>86266</v>
       </c>
@@ -1814,8 +1994,14 @@
       <c r="F35">
         <v>1883</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>42.307153</v>
+      </c>
+      <c r="H35">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>86263</v>
       </c>
@@ -1831,8 +2017,14 @@
       <c r="F36">
         <v>1883</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>42.307153</v>
+      </c>
+      <c r="H36">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>86264</v>
       </c>
@@ -1848,8 +2040,14 @@
       <c r="F37">
         <v>1909</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>43.130470000000003</v>
+      </c>
+      <c r="H37">
+        <v>-77.604658000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>86262</v>
       </c>
@@ -1865,8 +2063,14 @@
       <c r="F38">
         <v>1911</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>42.307153</v>
+      </c>
+      <c r="H38">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>86265</v>
       </c>
@@ -1882,8 +2086,14 @@
       <c r="F39">
         <v>1883</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>42.307153</v>
+      </c>
+      <c r="H39">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>86270</v>
       </c>
@@ -1899,8 +2109,14 @@
       <c r="F40">
         <v>1883</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>42.307153</v>
+      </c>
+      <c r="H40">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>86271</v>
       </c>
@@ -1916,8 +2132,14 @@
       <c r="F41">
         <v>1883</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>42.307153</v>
+      </c>
+      <c r="H41">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>86272</v>
       </c>
@@ -1933,8 +2155,14 @@
       <c r="F42">
         <v>1883</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>42.307153</v>
+      </c>
+      <c r="H42">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>86268</v>
       </c>
@@ -1950,8 +2178,14 @@
       <c r="F43">
         <v>1883</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>42.307153</v>
+      </c>
+      <c r="H43">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>86269</v>
       </c>
@@ -1967,8 +2201,14 @@
       <c r="F44">
         <v>1883</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>42.307153</v>
+      </c>
+      <c r="H44">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>87758</v>
       </c>
@@ -1985,7 +2225,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>87759</v>
       </c>
@@ -2001,8 +2241,14 @@
       <c r="F46">
         <v>2011</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>42.307153</v>
+      </c>
+      <c r="H46">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>88311</v>
       </c>
@@ -2019,7 +2265,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>87761</v>
       </c>
@@ -2035,8 +2281,14 @@
       <c r="F48">
         <v>1982</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>33.786369000000001</v>
+      </c>
+      <c r="H48">
+        <v>-84.303698999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>86285</v>
       </c>
@@ -2052,8 +2304,14 @@
       <c r="F49">
         <v>1916</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>35.054271</v>
+      </c>
+      <c r="H49">
+        <v>-83.201019000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>86286</v>
       </c>
@@ -2069,8 +2327,14 @@
       <c r="F50">
         <v>1917</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>35.054271</v>
+      </c>
+      <c r="H50">
+        <v>-83.201019000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>86288</v>
       </c>
@@ -2086,8 +2350,14 @@
       <c r="F51">
         <v>1916</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>35.054271</v>
+      </c>
+      <c r="H51">
+        <v>-83.201019000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>87760</v>
       </c>
@@ -2103,8 +2373,14 @@
       <c r="F52">
         <v>1908</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>42.307153</v>
+      </c>
+      <c r="H52">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>86287</v>
       </c>
@@ -2120,8 +2396,14 @@
       <c r="F53">
         <v>1908</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>42.307153</v>
+      </c>
+      <c r="H53">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>92204</v>
       </c>
@@ -2137,8 +2419,14 @@
       <c r="F54">
         <v>1950</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>42.307153</v>
+      </c>
+      <c r="H54">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>92206</v>
       </c>
@@ -2154,8 +2442,14 @@
       <c r="F55">
         <v>1928</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>42.130481000000003</v>
+      </c>
+      <c r="H55">
+        <v>-70.950014999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>92208</v>
       </c>
@@ -2171,8 +2465,14 @@
       <c r="F56">
         <v>1883</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>42.307153</v>
+      </c>
+      <c r="H56">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>92203</v>
       </c>
@@ -2188,8 +2488,14 @@
       <c r="F57">
         <v>2006</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>44.892060000000001</v>
+      </c>
+      <c r="H57">
+        <v>-122.914957</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>135343</v>
       </c>
@@ -2205,8 +2511,14 @@
       <c r="F58">
         <v>1885</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>42.307153</v>
+      </c>
+      <c r="H58">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>169171</v>
       </c>
@@ -2222,8 +2534,14 @@
       <c r="F59">
         <v>1982</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>42.307153</v>
+      </c>
+      <c r="H59">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>166763</v>
       </c>
@@ -2239,8 +2557,14 @@
       <c r="F60">
         <v>1984</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>42.307153</v>
+      </c>
+      <c r="H60">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>166764</v>
       </c>
@@ -2256,8 +2580,14 @@
       <c r="F61">
         <v>2008</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>43.765836999999998</v>
+      </c>
+      <c r="H61">
+        <v>-73.756662000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>166765</v>
       </c>
@@ -2273,8 +2603,14 @@
       <c r="F62">
         <v>1924</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>42.683669000000002</v>
+      </c>
+      <c r="H62">
+        <v>-70.984830000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>166767</v>
       </c>
@@ -2290,8 +2626,14 @@
       <c r="F63">
         <v>2009</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>42.307153</v>
+      </c>
+      <c r="H63">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>166766</v>
       </c>
@@ -2307,8 +2649,14 @@
       <c r="F64">
         <v>2009</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>42.307153</v>
+      </c>
+      <c r="H64">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>166780</v>
       </c>
@@ -2324,8 +2672,14 @@
       <c r="F65">
         <v>1883</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>42.307153</v>
+      </c>
+      <c r="H65">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>166779</v>
       </c>
@@ -2341,8 +2695,14 @@
       <c r="F66">
         <v>1883</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>42.307153</v>
+      </c>
+      <c r="H66">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>166776</v>
       </c>
@@ -2359,7 +2719,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>166777</v>
       </c>
@@ -2376,7 +2736,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>166778</v>
       </c>
@@ -2392,8 +2752,14 @@
       <c r="F69">
         <v>2009</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>42.307153</v>
+      </c>
+      <c r="H69">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>166768</v>
       </c>
@@ -2409,8 +2775,14 @@
       <c r="F70">
         <v>1971</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>45.560023999999999</v>
+      </c>
+      <c r="H70">
+        <v>-73.563158999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>166769</v>
       </c>
@@ -2426,8 +2798,14 @@
       <c r="F71">
         <v>2007</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>42.328440000000001</v>
+      </c>
+      <c r="H71">
+        <v>-72.522852</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>166775</v>
       </c>
@@ -2443,8 +2821,14 @@
       <c r="F72">
         <v>2008</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>42.307153</v>
+      </c>
+      <c r="H72">
+        <v>-71.120872000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>166773</v>
       </c>
@@ -2461,7 +2845,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>166774</v>
       </c>
@@ -2478,7 +2862,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>169166</v>
       </c>
@@ -2494,8 +2878,14 @@
       <c r="F75">
         <v>2008</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>43.765836999999998</v>
+      </c>
+      <c r="H75">
+        <v>-73.756662000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>169165</v>
       </c>
@@ -2511,8 +2901,14 @@
       <c r="F76">
         <v>2008</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>43.765836999999998</v>
+      </c>
+      <c r="H76">
+        <v>-73.756662000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>169167</v>
       </c>
@@ -2528,8 +2924,14 @@
       <c r="F77">
         <v>2008</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>43.765836999999998</v>
+      </c>
+      <c r="H77">
+        <v>-73.756662000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>169168</v>
       </c>
@@ -2545,9 +2947,16 @@
       <c r="F78">
         <v>2008</v>
       </c>
+      <c r="G78">
+        <v>43.765836999999998</v>
+      </c>
+      <c r="H78">
+        <v>-73.756662000000006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
